--- a/GameFrame/Assets/StreamingAssets/Config/Music.xlsx
+++ b/GameFrame/Assets/StreamingAssets/Config/Music.xlsx
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>音乐文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -112,30 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BackgroudMusic1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackgroudMusic2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackgroudMusic3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialEffectMusic2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialEffectMusic3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialEffectMusic1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -197,6 +169,34 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackgroudMusic1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackgroudMusic2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackgroudMusic3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialEffectMusic1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialEffectMusic2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialEffectMusic3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐文件名(不带后缀)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -591,13 +591,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -660,7 +660,7 @@
         <v>1004</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -677,7 +677,7 @@
         <v>1005</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -694,7 +694,7 @@
         <v>1006</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>

--- a/GameFrame/Assets/StreamingAssets/Config/Music.xlsx
+++ b/GameFrame/Assets/StreamingAssets/Config/Music.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="12770" windowHeight="5720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,11 @@
   </si>
   <si>
     <t>音乐文件名(不带后缀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否缓存
+1:缓存2:不缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +231,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,12 +241,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,9 +259,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,134 +572,155 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="61" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <v>1001</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1002</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1003</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1004</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1005</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1006</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +736,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -729,7 +749,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
